--- a/CompanyManager/ExcelForm/영업마스터양식.xlsx
+++ b/CompanyManager/ExcelForm/영업마스터양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최건\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최건\Desktop\Team5FinalProject123123123 (2)\CompanyManager\ExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664AF3AA-47DE-407D-A9D1-CF876B4BCC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E7DAB-D9EC-4071-9E21-8D5537B0D6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19110" windowHeight="15225" xr2:uid="{A0F28CB7-9E3B-4104-AEE0-396FEF1FB46F}"/>
+    <workbookView xWindow="13335" yWindow="5385" windowWidth="19110" windowHeight="15225" xr2:uid="{A0F28CB7-9E3B-4104-AEE0-396FEF1FB46F}"/>
   </bookViews>
   <sheets>
     <sheet name="단가정보" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>품목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -68,6 +68,30 @@
   </si>
   <si>
     <t>업체 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOTEST1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜에이더블유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAIR_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 1인용 의자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0163EA-A2FC-4758-A896-5A76B65364EB}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K3:K4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,7 +504,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -515,31 +539,33 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="4"/>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>150</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44252</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
